--- a/Testing/Ultrasonic.xlsx
+++ b/Testing/Ultrasonic.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Documents\GitHub\Yavin4DefenceSystem\Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -83,6 +88,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -90,7 +98,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -666,11 +674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55997952"/>
-        <c:axId val="55999488"/>
+        <c:axId val="157287256"/>
+        <c:axId val="157295568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55997952"/>
+        <c:axId val="157287256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,12 +712,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55999488"/>
+        <c:crossAx val="157295568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55999488"/>
+        <c:axId val="157295568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +747,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55997952"/>
+        <c:crossAx val="157287256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -759,7 +767,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -771,6 +779,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Ultrasonic Sensor Profile</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1335,11 +1358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94052736"/>
-        <c:axId val="94054656"/>
+        <c:axId val="193862984"/>
+        <c:axId val="157499832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94052736"/>
+        <c:axId val="193862984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1383,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> (1/625000 sec)</a:t>
+                  <a:t> (Ticks - 0.4 us)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -1373,12 +1396,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94054656"/>
+        <c:crossAx val="157499832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94054656"/>
+        <c:axId val="157499832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1431,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94052736"/>
+        <c:crossAx val="193862984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1429,7 +1452,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1440,7 +1463,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1451,7 +1474,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12331290" cy="8060403"/>
+    <xdr:ext cx="9299408" cy="6065921"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1478,7 +1501,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12331290" cy="8060403"/>
+    <xdr:ext cx="9299408" cy="6065921"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1544,7 +1567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1579,7 +1602,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1790,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
